--- a/output/xlsx/UC009 - Prestar Contas--ART-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC009 - Prestar Contas--ART-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--ART-.xlsx
@@ -113,7 +113,7 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>SYSTEM Exibe os detalhes referentes à solicitação selecionada, bem como identificando e apresentando os tipos de documentos/comprovantes a serem informados/consultados pelo usuário; e Exibe o histórico da tramitação da prestação de contas.</t>
+    <t>SYSTEM Exibe os detalhes referentes à solicitação selecionada, dados do beneficiário, bem como identificando e apresentando os tipos de documentos/comprovantes a serem informados/consultados pelo usuário; e Exibe o histórico da tramitação da prestação de contas.</t>
   </si>
   <si>
     <t>Chefe Clica em confirmar (enviar prestação de contas).</t>
@@ -179,7 +179,7 @@
     <t>TC10</t>
   </si>
   <si>
-    <t>Chefe Visualiza o histório da tramitação da prestação de contas.</t>
+    <t>Chefe Verifica o histório da tramitação da prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Exibe o histórico da tramitação da prestação de contas.</t>

--- a/output/xlsx/UC009 - Prestar Contas--ART-.xlsx
+++ b/output/xlsx/UC009 - Prestar Contas--ART-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -101,7 +101,7 @@
     <t>Chefe Indica uma solicitação de diárias a fim de realizar a prestação de contas.</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Permite não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
+    <t>SYSTEM Identifica que a prestação de contas indicada pelo usuário não está em nenhum desses dois estados: a) NÃO REALIZADA e b) DEVOLVIDA; Não permite um novo envio ou alterações na prestação (exclusão de documentos).</t>
   </si>
   <si>
     <t>TC2</t>
@@ -134,7 +134,7 @@
     <t>Chefe Clica para detalhar a solicitação de diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC5</t>
@@ -179,7 +179,7 @@
     <t>TC10</t>
   </si>
   <si>
-    <t>Chefe Verifica o histório da tramitação da prestação de contas.</t>
+    <t>Chefe Verifica o histórico da tramitação da prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Exibe o histórico da tramitação da prestação de contas.</t>
